--- a/backtest_results_jan.xlsx
+++ b/backtest_results_jan.xlsx
@@ -555,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
       <selection activeCell="G195" sqref="G195"/>
@@ -2703,6 +2703,28 @@
         <v>120158.8388935764</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="8" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B195" t="n">
+        <v>121830.381027414</v>
+      </c>
+      <c r="C195" t="n">
+        <v>120225.8276499359</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="8" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B196" t="n">
+        <v>119686.0871154832</v>
+      </c>
+      <c r="C196" t="n">
+        <v>121830.381027414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
